--- a/VerveStacks_PRT/SysSettings.xlsx
+++ b/VerveStacks_PRT/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_PRT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD703EF-A208-423D-9C53-B51AD60BB1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C497CD-C530-4EB9-A5B4-167698E49FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_PRT/SysSettings.xlsx
+++ b/VerveStacks_PRT/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_PRT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C497CD-C530-4EB9-A5B4-167698E49FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CE2F00-5E58-4166-9A46-D287BAA8F872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
